--- a/results/Winner_determination/dataset_09/results_excel_26-9-22_freelancer_constrained_1_.xlsx
+++ b/results/Winner_determination/dataset_09/results_excel_26-9-22_freelancer_constrained_1_.xlsx
@@ -579,64 +579,64 @@
         <v>50</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="H2">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="I2">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="J2">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="K2">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="L2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M2">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="N2">
         <v>1</v>
       </c>
       <c r="O2">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="P2">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="Q2">
-        <v>1.699951919974932</v>
+        <v>1.860752340715006</v>
       </c>
       <c r="R2">
-        <v>105.4018270409526</v>
+        <v>99.89893445997981</v>
       </c>
       <c r="S2">
-        <v>5.473684210526316</v>
+        <v>6.428571428571429</v>
       </c>
       <c r="T2">
-        <v>5.473684210526316</v>
+        <v>6.428571428571429</v>
       </c>
       <c r="U2">
-        <v>1.699951919974932</v>
+        <v>1.860752340715006</v>
       </c>
       <c r="V2">
-        <v>105.4018270409526</v>
+        <v>99.89893445997981</v>
       </c>
       <c r="W2">
-        <v>668</v>
+        <v>686</v>
       </c>
       <c r="X2">
         <v>838</v>
       </c>
       <c r="Y2">
-        <v>668</v>
+        <v>686</v>
       </c>
       <c r="Z2">
         <v>1</v>
@@ -659,64 +659,64 @@
         <v>50</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>261</v>
+        <v>221</v>
       </c>
       <c r="H3">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I3">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="J3">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="K3">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="L3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M3">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="N3">
         <v>1</v>
       </c>
       <c r="O3">
-        <v>261</v>
+        <v>221</v>
       </c>
       <c r="P3">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Q3">
-        <v>1.632694774598368</v>
+        <v>1.684590634813445</v>
       </c>
       <c r="R3">
-        <v>126.7325664954833</v>
+        <v>110.9317839726487</v>
       </c>
       <c r="S3">
-        <v>5.117647058823529</v>
+        <v>5.390243902439025</v>
       </c>
       <c r="T3">
-        <v>5.117647058823529</v>
+        <v>5.390243902439025</v>
       </c>
       <c r="U3">
-        <v>1.632694774598368</v>
+        <v>1.684590634813445</v>
       </c>
       <c r="V3">
-        <v>126.7325664954833</v>
+        <v>110.9317839726487</v>
       </c>
       <c r="W3">
-        <v>775</v>
+        <v>805</v>
       </c>
       <c r="X3">
         <v>985</v>
       </c>
       <c r="Y3">
-        <v>775</v>
+        <v>805</v>
       </c>
       <c r="Z3">
         <v>1</v>
@@ -739,64 +739,64 @@
         <v>50</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>377</v>
+        <v>329</v>
       </c>
       <c r="H4">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I4">
-        <v>312</v>
+        <v>279</v>
       </c>
       <c r="J4">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="K4">
-        <v>312</v>
+        <v>279</v>
       </c>
       <c r="L4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M4">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="N4">
         <v>1</v>
       </c>
       <c r="O4">
-        <v>377</v>
+        <v>329</v>
       </c>
       <c r="P4">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="Q4">
-        <v>1.757857917552374</v>
+        <v>1.884034745337226</v>
       </c>
       <c r="R4">
-        <v>197.7392353590957</v>
+        <v>184.7982627331387</v>
       </c>
       <c r="S4">
-        <v>5.8</v>
+        <v>6.58</v>
       </c>
       <c r="T4">
-        <v>5.8</v>
+        <v>6.58</v>
       </c>
       <c r="U4">
-        <v>1.757857917552374</v>
+        <v>1.884034745337226</v>
       </c>
       <c r="V4">
-        <v>197.7392353590957</v>
+        <v>184.7982627331387</v>
       </c>
       <c r="W4">
-        <v>1076</v>
+        <v>1109</v>
       </c>
       <c r="X4">
         <v>1388</v>
       </c>
       <c r="Y4">
-        <v>1076</v>
+        <v>1109</v>
       </c>
       <c r="Z4">
         <v>1</v>
@@ -819,64 +819,64 @@
         <v>50</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>253</v>
+        <v>204</v>
       </c>
       <c r="H5">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="I5">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="J5">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="K5">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="L5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M5">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="N5">
         <v>1</v>
       </c>
       <c r="O5">
-        <v>253</v>
+        <v>204</v>
       </c>
       <c r="P5">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="Q5">
-        <v>1.313881783551414</v>
+        <v>1.65455834771457</v>
       </c>
       <c r="R5">
-        <v>95.65603871850388</v>
+        <v>100.4722244391318</v>
       </c>
       <c r="S5">
-        <v>3.720588235294118</v>
+        <v>5.230769230769231</v>
       </c>
       <c r="T5">
-        <v>3.720588235294118</v>
+        <v>5.230769230769231</v>
       </c>
       <c r="U5">
-        <v>1.313881783551414</v>
+        <v>1.65455834771457</v>
       </c>
       <c r="V5">
-        <v>95.65603871850388</v>
+        <v>100.4722244391318</v>
       </c>
       <c r="W5">
-        <v>506</v>
+        <v>526</v>
       </c>
       <c r="X5">
         <v>691</v>
       </c>
       <c r="Y5">
-        <v>506</v>
+        <v>526</v>
       </c>
       <c r="Z5">
         <v>1</v>
@@ -899,64 +899,64 @@
         <v>50</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>242</v>
+        <v>198</v>
       </c>
       <c r="H6">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="I6">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="J6">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="K6">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="L6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M6">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="N6">
         <v>1</v>
       </c>
       <c r="O6">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="P6">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="Q6">
-        <v>1.32513993796656</v>
+        <v>1.299282984130261</v>
       </c>
       <c r="R6">
-        <v>84.81674365997296</v>
+        <v>73.83871885696591</v>
       </c>
       <c r="S6">
-        <v>3.76271186440678</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="T6">
-        <v>3.063291139240506</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="U6">
-        <v>1.119489873689665</v>
+        <v>1.299282984130261</v>
       </c>
       <c r="V6">
-        <v>74.56029997851648</v>
+        <v>73.83871885696591</v>
       </c>
       <c r="W6">
-        <v>655</v>
+        <v>674</v>
       </c>
       <c r="X6">
         <v>818</v>
       </c>
       <c r="Y6">
-        <v>655</v>
+        <v>674</v>
       </c>
       <c r="Z6">
         <v>1</v>
@@ -979,64 +979,64 @@
         <v>50</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>256</v>
+        <v>198</v>
       </c>
       <c r="H7">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="I7">
-        <v>181</v>
+        <v>148</v>
       </c>
       <c r="J7">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="K7">
-        <v>181</v>
+        <v>148</v>
       </c>
       <c r="L7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="N7">
         <v>1</v>
       </c>
       <c r="O7">
-        <v>256</v>
+        <v>198</v>
       </c>
       <c r="P7">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="Q7">
-        <v>1.227689330943252</v>
+        <v>1.376244025266389</v>
       </c>
       <c r="R7">
-        <v>88.92330017925609</v>
+        <v>79.18779873668053</v>
       </c>
       <c r="S7">
-        <v>3.413333333333334</v>
+        <v>3.96</v>
       </c>
       <c r="T7">
-        <v>3.413333333333334</v>
+        <v>3.96</v>
       </c>
       <c r="U7">
-        <v>1.227689330943252</v>
+        <v>1.376244025266389</v>
       </c>
       <c r="V7">
-        <v>88.92330017925609</v>
+        <v>79.18779873668053</v>
       </c>
       <c r="W7">
-        <v>966</v>
+        <v>999</v>
       </c>
       <c r="X7">
         <v>1147</v>
       </c>
       <c r="Y7">
-        <v>966</v>
+        <v>999</v>
       </c>
       <c r="Z7">
         <v>1</v>
@@ -1059,67 +1059,67 @@
         <v>50</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="H8">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I8">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="J8">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="K8">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="L8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M8">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="N8">
-        <v>0.9081081081081082</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>250</v>
+        <v>211</v>
       </c>
       <c r="P8">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="Q8">
-        <v>1.347073647966609</v>
+        <v>1.362874086911792</v>
       </c>
       <c r="R8">
-        <v>97.44021288217039</v>
+        <v>83.40479930676322</v>
       </c>
       <c r="S8">
-        <v>3.846153846153846</v>
+        <v>3.907407407407407</v>
       </c>
       <c r="T8">
-        <v>3.947368421052631</v>
+        <v>4.488888888888889</v>
       </c>
       <c r="U8">
-        <v>1.37304913436987</v>
+        <v>1.501605207630885</v>
       </c>
       <c r="V8">
-        <v>89.73619934091742</v>
+        <v>89.42776565661018</v>
       </c>
       <c r="W8">
-        <v>886</v>
+        <v>897</v>
       </c>
       <c r="X8">
         <v>1054</v>
       </c>
       <c r="Y8">
-        <v>869</v>
+        <v>897</v>
       </c>
       <c r="Z8">
-        <v>1.019562715765247</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -1139,64 +1139,64 @@
         <v>50</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="H9">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I9">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="J9">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="K9">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="L9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M9">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="N9">
         <v>1</v>
       </c>
       <c r="O9">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="P9">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Q9">
-        <v>1.734601055388106</v>
+        <v>1.695299203040493</v>
       </c>
       <c r="R9">
-        <v>96.75816517219249</v>
+        <v>79.83632311182572</v>
       </c>
       <c r="S9">
-        <v>5.666666666666667</v>
+        <v>5.448275862068965</v>
       </c>
       <c r="T9">
-        <v>5.666666666666667</v>
+        <v>5.448275862068965</v>
       </c>
       <c r="U9">
-        <v>1.734601055388106</v>
+        <v>1.695299203040493</v>
       </c>
       <c r="V9">
-        <v>96.75816517219249</v>
+        <v>79.83632311182572</v>
       </c>
       <c r="W9">
-        <v>731</v>
+        <v>756</v>
       </c>
       <c r="X9">
         <v>885</v>
       </c>
       <c r="Y9">
-        <v>731</v>
+        <v>756</v>
       </c>
       <c r="Z9">
         <v>1</v>
@@ -1219,64 +1219,64 @@
         <v>50</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G10">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="H10">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="I10">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="J10">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="K10">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="L10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M10">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="N10">
         <v>1</v>
       </c>
       <c r="O10">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="P10">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="Q10">
-        <v>1.109662124854695</v>
+        <v>1.273965176145971</v>
       </c>
       <c r="R10">
-        <v>55.42027250871831</v>
+        <v>52.04139295416116</v>
       </c>
       <c r="S10">
-        <v>3.033333333333333</v>
+        <v>3.575</v>
       </c>
       <c r="T10">
-        <v>3.033333333333333</v>
+        <v>3.575</v>
       </c>
       <c r="U10">
-        <v>1.109662124854695</v>
+        <v>1.273965176145971</v>
       </c>
       <c r="V10">
-        <v>55.42027250871831</v>
+        <v>52.04139295416116</v>
       </c>
       <c r="W10">
-        <v>657</v>
+        <v>676</v>
       </c>
       <c r="X10">
         <v>779</v>
       </c>
       <c r="Y10">
-        <v>657</v>
+        <v>676</v>
       </c>
       <c r="Z10">
         <v>1</v>
@@ -1299,64 +1299,64 @@
         <v>50</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="H11">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="I11">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="J11">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="K11">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="L11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M11">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="N11">
         <v>1</v>
       </c>
       <c r="O11">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="P11">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="Q11">
-        <v>1.551255957051365</v>
+        <v>1.619909212301396</v>
       </c>
       <c r="R11">
-        <v>99.64222597563723</v>
+        <v>92.44344993254697</v>
       </c>
       <c r="S11">
-        <v>4.717391304347826</v>
+        <v>5.052631578947368</v>
       </c>
       <c r="T11">
-        <v>4.717391304347826</v>
+        <v>5.052631578947368</v>
       </c>
       <c r="U11">
-        <v>1.551255957051365</v>
+        <v>1.619909212301396</v>
       </c>
       <c r="V11">
-        <v>99.64222597563723</v>
+        <v>92.44344993254697</v>
       </c>
       <c r="W11">
-        <v>772</v>
+        <v>789</v>
       </c>
       <c r="X11">
         <v>943</v>
       </c>
       <c r="Y11">
-        <v>772</v>
+        <v>789</v>
       </c>
       <c r="Z11">
         <v>1</v>
